--- a/Networks/Parte4/Excel/Network64.xlsx
+++ b/Networks/Parte4/Excel/Network64.xlsx
@@ -764,196 +764,196 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-70.00352141756014</v>
+        <v>53.13983223439846</v>
       </c>
       <c r="C2" t="n">
-        <v>35.89301025635493</v>
+        <v>-32.41719567538266</v>
       </c>
       <c r="D2" t="n">
-        <v>-21.47713232678783</v>
+        <v>-15.53492130978386</v>
       </c>
       <c r="E2" t="n">
-        <v>36.94395275061073</v>
+        <v>-77.1958081229577</v>
       </c>
       <c r="F2" t="n">
-        <v>-69.45304615308723</v>
+        <v>10.44566977506857</v>
       </c>
       <c r="G2" t="n">
-        <v>-71.15716130970962</v>
+        <v>-72.45319229215586</v>
       </c>
       <c r="H2" t="n">
-        <v>-52.62519721880577</v>
+        <v>37.69589103204931</v>
       </c>
       <c r="I2" t="n">
-        <v>-39.02092898030071</v>
+        <v>-5.037090519895411</v>
       </c>
       <c r="J2" t="n">
-        <v>-32.5548801115622</v>
+        <v>46.09939496953928</v>
       </c>
       <c r="K2" t="n">
-        <v>-74.88192108056991</v>
+        <v>23.05180255351874</v>
       </c>
       <c r="L2" t="n">
-        <v>27.50617089513979</v>
+        <v>-31.080470055872</v>
       </c>
       <c r="M2" t="n">
-        <v>-67.45242001560361</v>
+        <v>-4.513550107023552</v>
       </c>
       <c r="N2" t="n">
-        <v>-65.02960197954194</v>
+        <v>30.7280859505699</v>
       </c>
       <c r="O2" t="n">
-        <v>-78.72942796246872</v>
+        <v>29.62207810687718</v>
       </c>
       <c r="P2" t="n">
-        <v>-83.6259593193751</v>
+        <v>-43.37275600346096</v>
       </c>
       <c r="Q2" t="n">
-        <v>-44.07458191091973</v>
+        <v>-84.78526572176584</v>
       </c>
       <c r="R2" t="n">
-        <v>58.10258567008773</v>
+        <v>-83.22012680442057</v>
       </c>
       <c r="S2" t="n">
-        <v>-22.22451713523586</v>
+        <v>-76.14659943740951</v>
       </c>
       <c r="T2" t="n">
-        <v>-87.80905657237692</v>
+        <v>26.07897511136273</v>
       </c>
       <c r="U2" t="n">
-        <v>-41.02799161343631</v>
+        <v>-38.06385966670432</v>
       </c>
       <c r="V2" t="n">
-        <v>22.50322544421887</v>
+        <v>3.949673419874901</v>
       </c>
       <c r="W2" t="n">
-        <v>-95.68020456711162</v>
+        <v>-85.36299215188798</v>
       </c>
       <c r="X2" t="n">
-        <v>46.49624299169838</v>
+        <v>-87.37803770935089</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.103364189516954</v>
+        <v>-59.78046438452233</v>
       </c>
       <c r="Z2" t="n">
-        <v>45.10517796930363</v>
+        <v>32.0282999765009</v>
       </c>
       <c r="AA2" t="n">
-        <v>-72.58283408734704</v>
+        <v>-92.0232660891208</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.35159440236389</v>
+        <v>-69.69624002733374</v>
       </c>
       <c r="AC2" t="n">
-        <v>-74.94394646522683</v>
+        <v>-69.64122663383685</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.66352622712002</v>
+        <v>-17.25442752879446</v>
       </c>
       <c r="AE2" t="n">
-        <v>26.62447470392395</v>
+        <v>-0.9986310367654412</v>
       </c>
       <c r="AF2" t="n">
-        <v>-76.14717947240521</v>
+        <v>-78.29022755712727</v>
       </c>
       <c r="AG2" t="n">
-        <v>-41.71637719353969</v>
+        <v>55.35613602392392</v>
       </c>
       <c r="AH2" t="n">
-        <v>27.14416807918314</v>
+        <v>2.313113859108916</v>
       </c>
       <c r="AI2" t="n">
-        <v>-28.92170823486413</v>
+        <v>-54.15013603998835</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38.5182908834368</v>
+        <v>-13.20101441544506</v>
       </c>
       <c r="AK2" t="n">
-        <v>-70.58864667496539</v>
+        <v>47.82326914316419</v>
       </c>
       <c r="AL2" t="n">
-        <v>14.72718603712339</v>
+        <v>-65.14837492146422</v>
       </c>
       <c r="AM2" t="n">
-        <v>10.55986238020007</v>
+        <v>-90.00697965324015</v>
       </c>
       <c r="AN2" t="n">
-        <v>-74.94902521326136</v>
+        <v>-73.57278651878491</v>
       </c>
       <c r="AO2" t="n">
-        <v>21.66196099883188</v>
+        <v>23.87594291025798</v>
       </c>
       <c r="AP2" t="n">
-        <v>-18.62946941803082</v>
+        <v>-44.16829205896401</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-53.11820733937329</v>
+        <v>50.89391893794436</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.774042105507353</v>
+        <v>38.76998193860496</v>
       </c>
       <c r="AS2" t="n">
-        <v>45.87359988295179</v>
+        <v>-38.70394302521523</v>
       </c>
       <c r="AT2" t="n">
-        <v>30.2334701461608</v>
+        <v>-23.21833951585283</v>
       </c>
       <c r="AU2" t="n">
-        <v>-4.4494181938688</v>
+        <v>-51.19644188842121</v>
       </c>
       <c r="AV2" t="n">
-        <v>-86.84762073447391</v>
+        <v>-60.74494259263093</v>
       </c>
       <c r="AW2" t="n">
-        <v>-46.63032620795398</v>
+        <v>19.50534468619526</v>
       </c>
       <c r="AX2" t="n">
-        <v>-15.87034110564067</v>
+        <v>-80.77083751935524</v>
       </c>
       <c r="AY2" t="n">
-        <v>60.03309511917234</v>
+        <v>-58.13038013570284</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-54.66209412343856</v>
+        <v>23.44546317621768</v>
       </c>
       <c r="BA2" t="n">
-        <v>47.53002744616023</v>
+        <v>24.12241932455196</v>
       </c>
       <c r="BB2" t="n">
-        <v>-62.17364504572558</v>
+        <v>-58.14519488932157</v>
       </c>
       <c r="BC2" t="n">
-        <v>-86.8792089644335</v>
+        <v>-78.07645089994753</v>
       </c>
       <c r="BD2" t="n">
-        <v>-15.00386372910241</v>
+        <v>-56.78969671828311</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.318676117871705</v>
+        <v>38.41149952066618</v>
       </c>
       <c r="BF2" t="n">
-        <v>19.37318467379126</v>
+        <v>-71.00258366141958</v>
       </c>
       <c r="BG2" t="n">
-        <v>-58.08507263577909</v>
+        <v>9.588897252456761</v>
       </c>
       <c r="BH2" t="n">
-        <v>-79.80981013638294</v>
+        <v>-59.45989857570272</v>
       </c>
       <c r="BI2" t="n">
-        <v>-79.09526738080426</v>
+        <v>-69.6822234416523</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-65.71275680965496</v>
+        <v>-50.50115467316076</v>
       </c>
       <c r="BK2" t="n">
-        <v>-94.56944085568651</v>
+        <v>-30.62871259090301</v>
       </c>
       <c r="BL2" t="n">
-        <v>-63.68094911431236</v>
+        <v>-79.69847099909137</v>
       </c>
       <c r="BM2" t="n">
-        <v>-26.82686213174782</v>
+        <v>-75.89014393163221</v>
       </c>
     </row>
     <row r="3">
@@ -963,196 +963,196 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.310202223385392</v>
+        <v>36.29717831684401</v>
       </c>
       <c r="C3" t="n">
-        <v>5.152403793764506</v>
+        <v>3.179286484143567</v>
       </c>
       <c r="D3" t="n">
-        <v>32.87656443682449</v>
+        <v>46.26113353048254</v>
       </c>
       <c r="E3" t="n">
-        <v>22.02265888235449</v>
+        <v>27.93777004677598</v>
       </c>
       <c r="F3" t="n">
-        <v>9.754848056166187</v>
+        <v>49.66179303938967</v>
       </c>
       <c r="G3" t="n">
-        <v>25.01823399179417</v>
+        <v>10.97880639311476</v>
       </c>
       <c r="H3" t="n">
-        <v>11.69415008151943</v>
+        <v>31.19884952606445</v>
       </c>
       <c r="I3" t="n">
-        <v>20.55735124493897</v>
+        <v>14.37971118060547</v>
       </c>
       <c r="J3" t="n">
-        <v>4.159396188278397</v>
+        <v>-31.97590468887236</v>
       </c>
       <c r="K3" t="n">
-        <v>14.89075974077608</v>
+        <v>48.98655206942988</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.621555415400266</v>
+        <v>45.95982459411177</v>
       </c>
       <c r="M3" t="n">
-        <v>38.36594992023009</v>
+        <v>55.21399913424645</v>
       </c>
       <c r="N3" t="n">
-        <v>9.042937248458282</v>
+        <v>20.26142679585556</v>
       </c>
       <c r="O3" t="n">
-        <v>12.13080095140251</v>
+        <v>-34.60798075673966</v>
       </c>
       <c r="P3" t="n">
-        <v>27.19986243419461</v>
+        <v>24.51225995451978</v>
       </c>
       <c r="Q3" t="n">
-        <v>36.02455633594069</v>
+        <v>20.6207423340444</v>
       </c>
       <c r="R3" t="n">
-        <v>-38.52900215954042</v>
+        <v>8.144849801070515</v>
       </c>
       <c r="S3" t="n">
-        <v>30.9844528148598</v>
+        <v>22.85304122820719</v>
       </c>
       <c r="T3" t="n">
-        <v>17.30283693833563</v>
+        <v>22.9372319867159</v>
       </c>
       <c r="U3" t="n">
-        <v>36.72597260367294</v>
+        <v>40.68967470020842</v>
       </c>
       <c r="V3" t="n">
-        <v>23.47526779955249</v>
+        <v>40.39145846059944</v>
       </c>
       <c r="W3" t="n">
-        <v>12.37539820637679</v>
+        <v>26.46250221429214</v>
       </c>
       <c r="X3" t="n">
-        <v>-41.99594303845872</v>
+        <v>23.50701938632594</v>
       </c>
       <c r="Y3" t="n">
-        <v>31.60183959715498</v>
+        <v>36.1846097693693</v>
       </c>
       <c r="Z3" t="n">
-        <v>42.89081228260629</v>
+        <v>11.71837444916684</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.39193337563065</v>
+        <v>23.30652410600224</v>
       </c>
       <c r="AB3" t="n">
-        <v>39.37807311454249</v>
+        <v>11.12383446642658</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.52119013050925</v>
+        <v>10.83121422047943</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.4954929661328081</v>
+        <v>44.64853347157609</v>
       </c>
       <c r="AE3" t="n">
-        <v>32.34756548996599</v>
+        <v>33.21243113295866</v>
       </c>
       <c r="AF3" t="n">
-        <v>23.31262888015504</v>
+        <v>26.75662170572657</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.435826718595676</v>
+        <v>44.22730433634513</v>
       </c>
       <c r="AH3" t="n">
-        <v>45.62388735146531</v>
+        <v>35.4040586820434</v>
       </c>
       <c r="AI3" t="n">
-        <v>35.75351205337487</v>
+        <v>9.120324426005809</v>
       </c>
       <c r="AJ3" t="n">
-        <v>48.56230697375336</v>
+        <v>44.55464446323366</v>
       </c>
       <c r="AK3" t="n">
-        <v>23.78516372896798</v>
+        <v>-28.4693582168164</v>
       </c>
       <c r="AL3" t="n">
-        <v>49.40363238365409</v>
+        <v>11.47363097496566</v>
       </c>
       <c r="AM3" t="n">
-        <v>31.51097550567435</v>
+        <v>19.25147839896517</v>
       </c>
       <c r="AN3" t="n">
-        <v>31.62528599047433</v>
+        <v>18.22383859214994</v>
       </c>
       <c r="AO3" t="n">
-        <v>31.78600075918764</v>
+        <v>-1.771892468214202</v>
       </c>
       <c r="AP3" t="n">
-        <v>48.13382344148271</v>
+        <v>36.48264589313958</v>
       </c>
       <c r="AQ3" t="n">
-        <v>38.91765876793974</v>
+        <v>23.4091752796055</v>
       </c>
       <c r="AR3" t="n">
-        <v>30.14550970183797</v>
+        <v>38.94484231040615</v>
       </c>
       <c r="AS3" t="n">
-        <v>35.28000302082459</v>
+        <v>6.742033944231454</v>
       </c>
       <c r="AT3" t="n">
-        <v>20.32467733787347</v>
+        <v>32.51794766652824</v>
       </c>
       <c r="AU3" t="n">
-        <v>44.61165227714093</v>
+        <v>6.741546248194745</v>
       </c>
       <c r="AV3" t="n">
-        <v>23.51218808463458</v>
+        <v>6.164434533597199</v>
       </c>
       <c r="AW3" t="n">
-        <v>29.06008942346728</v>
+        <v>36.4934824417892</v>
       </c>
       <c r="AX3" t="n">
-        <v>49.96341236753449</v>
+        <v>13.13633381805954</v>
       </c>
       <c r="AY3" t="n">
-        <v>18.28038889712155</v>
+        <v>33.97759240566205</v>
       </c>
       <c r="AZ3" t="n">
-        <v>28.95716785579819</v>
+        <v>5.331128880501415</v>
       </c>
       <c r="BA3" t="n">
-        <v>30.11597408769038</v>
+        <v>34.76374902016335</v>
       </c>
       <c r="BB3" t="n">
-        <v>36.6131547184932</v>
+        <v>23.74763832983508</v>
       </c>
       <c r="BC3" t="n">
-        <v>20.71949520793702</v>
+        <v>9.427271912064318</v>
       </c>
       <c r="BD3" t="n">
-        <v>38.79048858795559</v>
+        <v>7.827301785597788</v>
       </c>
       <c r="BE3" t="n">
-        <v>50.33336935648503</v>
+        <v>51.95144111793223</v>
       </c>
       <c r="BF3" t="n">
-        <v>-33.61948929240583</v>
+        <v>33.39828623212379</v>
       </c>
       <c r="BG3" t="n">
-        <v>25.18395923273497</v>
+        <v>-23.18642359475449</v>
       </c>
       <c r="BH3" t="n">
-        <v>12.60929597051192</v>
+        <v>33.48982687315036</v>
       </c>
       <c r="BI3" t="n">
-        <v>20.63669847773919</v>
+        <v>31.33239909343014</v>
       </c>
       <c r="BJ3" t="n">
-        <v>24.25260791174767</v>
+        <v>39.8531984020161</v>
       </c>
       <c r="BK3" t="n">
-        <v>26.10451308211184</v>
+        <v>33.66632401790021</v>
       </c>
       <c r="BL3" t="n">
-        <v>9.264408531007332</v>
+        <v>10.1176621539685</v>
       </c>
       <c r="BM3" t="n">
-        <v>29.45106991931424</v>
+        <v>30.03888910640758</v>
       </c>
     </row>
     <row r="4">
@@ -1162,196 +1162,196 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.712851998764569</v>
+        <v>-5.88016979398098</v>
       </c>
       <c r="C4" t="n">
-        <v>35.68862397855094</v>
+        <v>3.105255089220321</v>
       </c>
       <c r="D4" t="n">
-        <v>3.485097121529424</v>
+        <v>4.436184549007633</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.76059122368459</v>
+        <v>25.02067640805665</v>
       </c>
       <c r="F4" t="n">
-        <v>7.655937634960159</v>
+        <v>3.096075357027957</v>
       </c>
       <c r="G4" t="n">
-        <v>14.69543150790346</v>
+        <v>7.059612826622745</v>
       </c>
       <c r="H4" t="n">
-        <v>5.030099852438422</v>
+        <v>10.31565703738272</v>
       </c>
       <c r="I4" t="n">
-        <v>28.47661566921267</v>
+        <v>42.71129996216222</v>
       </c>
       <c r="J4" t="n">
-        <v>2.591776003700049</v>
+        <v>14.2158616746266</v>
       </c>
       <c r="K4" t="n">
-        <v>18.28790245306604</v>
+        <v>1.846683219433952</v>
       </c>
       <c r="L4" t="n">
-        <v>-3.353690454709367</v>
+        <v>36.02915536841993</v>
       </c>
       <c r="M4" t="n">
-        <v>33.66132293010982</v>
+        <v>3.871433232810307</v>
       </c>
       <c r="N4" t="n">
-        <v>8.318263327220274</v>
+        <v>-15.29967771749814</v>
       </c>
       <c r="O4" t="n">
-        <v>4.677288760151591</v>
+        <v>22.29818661746226</v>
       </c>
       <c r="P4" t="n">
-        <v>20.07209563751894</v>
+        <v>7.670559325476927</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.27975417913504</v>
+        <v>19.98685433138169</v>
       </c>
       <c r="R4" t="n">
-        <v>20.60351579863565</v>
+        <v>11.45841733920375</v>
       </c>
       <c r="S4" t="n">
-        <v>39.03151720424888</v>
+        <v>17.74204491998847</v>
       </c>
       <c r="T4" t="n">
-        <v>7.303625446327582</v>
+        <v>6.998114062581164</v>
       </c>
       <c r="U4" t="n">
-        <v>35.65330634839599</v>
+        <v>33.60293628590608</v>
       </c>
       <c r="V4" t="n">
-        <v>39.87706660763033</v>
+        <v>44.41264333440602</v>
       </c>
       <c r="W4" t="n">
-        <v>12.28465075302472</v>
+        <v>27.16863560417465</v>
       </c>
       <c r="X4" t="n">
-        <v>24.10697226756978</v>
+        <v>24.25984810319133</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.4558496726791</v>
+        <v>18.50594499571022</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.6155579342500529</v>
+        <v>38.3598502294338</v>
       </c>
       <c r="AA4" t="n">
-        <v>24.50797189426041</v>
+        <v>20.79912163371453</v>
       </c>
       <c r="AB4" t="n">
-        <v>-3.904439447366749</v>
+        <v>8.064045827334757</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.642474036887698</v>
+        <v>7.55307466984499</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.62961462197703</v>
+        <v>43.96761931898887</v>
       </c>
       <c r="AE4" t="n">
-        <v>38.49140416443245</v>
+        <v>6.899179734982481</v>
       </c>
       <c r="AF4" t="n">
-        <v>24.36906415191068</v>
+        <v>26.85125322786393</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.637240493965191</v>
+        <v>-1.584691736189055</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.2796531649217355</v>
+        <v>21.95721114359945</v>
       </c>
       <c r="AI4" t="n">
-        <v>33.9372875765149</v>
+        <v>6.614463622991646</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.414297737262232</v>
+        <v>31.32211303464154</v>
       </c>
       <c r="AK4" t="n">
-        <v>21.23349663032754</v>
+        <v>26.40119328951267</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.389140608385675</v>
+        <v>6.329020779407344</v>
       </c>
       <c r="AM4" t="n">
-        <v>-4.017369143355702</v>
+        <v>25.56104388949148</v>
       </c>
       <c r="AN4" t="n">
-        <v>24.48588771344023</v>
+        <v>15.78607715505818</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.87159870022052</v>
+        <v>-3.661733966210851</v>
       </c>
       <c r="AP4" t="n">
-        <v>22.29682655232858</v>
+        <v>31.50905270862563</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34.12572814780128</v>
+        <v>-17.35436851368727</v>
       </c>
       <c r="AR4" t="n">
-        <v>9.407396840247635</v>
+        <v>3.124171766119408</v>
       </c>
       <c r="AS4" t="n">
-        <v>-2.879775411977229</v>
+        <v>4.356081683235283</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.99213881438983</v>
+        <v>2.743474704720166</v>
       </c>
       <c r="AU4" t="n">
-        <v>33.26777754776696</v>
+        <v>9.868187633103251</v>
       </c>
       <c r="AV4" t="n">
-        <v>21.43695107591131</v>
+        <v>5.621928721391426</v>
       </c>
       <c r="AW4" t="n">
-        <v>16.72124201479622</v>
+        <v>1.926046489644589</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.814852805530649</v>
+        <v>8.027177442688593</v>
       </c>
       <c r="AY4" t="n">
-        <v>-20.89976610084035</v>
+        <v>31.00487205328651</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9.471573782057071</v>
+        <v>-0.6835242032494873</v>
       </c>
       <c r="BA4" t="n">
-        <v>-16.83340315795572</v>
+        <v>44.38980578000282</v>
       </c>
       <c r="BB4" t="n">
-        <v>20.50250392118557</v>
+        <v>8.815307038467935</v>
       </c>
       <c r="BC4" t="n">
-        <v>23.71040994520738</v>
+        <v>10.8046527370145</v>
       </c>
       <c r="BD4" t="n">
-        <v>43.83930690157725</v>
+        <v>3.792372123918447</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.705314600247862</v>
+        <v>2.126810343179141</v>
       </c>
       <c r="BF4" t="n">
-        <v>21.71580007251661</v>
+        <v>31.67870453854869</v>
       </c>
       <c r="BG4" t="n">
-        <v>26.3887600097515</v>
+        <v>18.04862227260328</v>
       </c>
       <c r="BH4" t="n">
-        <v>10.58698185657408</v>
+        <v>23.6954175551266</v>
       </c>
       <c r="BI4" t="n">
-        <v>21.70825343506178</v>
+        <v>23.1591988409347</v>
       </c>
       <c r="BJ4" t="n">
-        <v>19.24532528753937</v>
+        <v>27.83933514886391</v>
       </c>
       <c r="BK4" t="n">
-        <v>21.63843537244027</v>
+        <v>12.82707881786562</v>
       </c>
       <c r="BL4" t="n">
-        <v>6.074713411765907</v>
+        <v>11.18980609860938</v>
       </c>
       <c r="BM4" t="n">
-        <v>9.39812439949079</v>
+        <v>23.97855754103017</v>
       </c>
     </row>
     <row r="5">
@@ -1361,196 +1361,196 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.4850379442364</v>
+        <v>2.773651401720547</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.850807411189163</v>
+        <v>4.348222431690163</v>
       </c>
       <c r="D5" t="n">
-        <v>4.970791512199817</v>
+        <v>5.85079428335641</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.93042198255432</v>
+        <v>8.034048017090948</v>
       </c>
       <c r="F5" t="n">
-        <v>9.534146316540236</v>
+        <v>8.595512495703286</v>
       </c>
       <c r="G5" t="n">
-        <v>8.147325974446272</v>
+        <v>11.76413466982451</v>
       </c>
       <c r="H5" t="n">
-        <v>5.437011610785698</v>
+        <v>-21.90802654527652</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2932683166125195</v>
+        <v>13.28336659130349</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4397107820675488</v>
+        <v>-1.444144435758349</v>
       </c>
       <c r="K5" t="n">
-        <v>13.33858003636787</v>
+        <v>8.336626418735646</v>
       </c>
       <c r="L5" t="n">
-        <v>42.02838482821675</v>
+        <v>8.814230626317364</v>
       </c>
       <c r="M5" t="n">
-        <v>10.61577453000635</v>
+        <v>9.155885659372458</v>
       </c>
       <c r="N5" t="n">
-        <v>10.34477529068599</v>
+        <v>-15.04020086926592</v>
       </c>
       <c r="O5" t="n">
-        <v>7.100122168776299</v>
+        <v>2.546849624859558</v>
       </c>
       <c r="P5" t="n">
-        <v>14.37874274903837</v>
+        <v>10.8285646381557</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.55819728112639</v>
+        <v>14.27169986063186</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.71747614060923</v>
+        <v>10.05096433498492</v>
       </c>
       <c r="S5" t="n">
-        <v>11.46348274831173</v>
+        <v>14.40491988871326</v>
       </c>
       <c r="T5" t="n">
-        <v>13.29952176206193</v>
+        <v>42.31893269624627</v>
       </c>
       <c r="U5" t="n">
-        <v>8.999475060954545</v>
+        <v>10.4428921346924</v>
       </c>
       <c r="V5" t="n">
-        <v>4.626448118679807</v>
+        <v>7.232855190238166</v>
       </c>
       <c r="W5" t="n">
-        <v>15.29565515472068</v>
+        <v>12.26654677040237</v>
       </c>
       <c r="X5" t="n">
-        <v>3.008903575412547</v>
+        <v>10.87862072960574</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.176891841593277</v>
+        <v>30.43280390735784</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.578808426375608</v>
+        <v>-4.295609734933458</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.00799431651631</v>
+        <v>12.1440859834014</v>
       </c>
       <c r="AB5" t="n">
-        <v>-4.130695214925947</v>
+        <v>10.34828402457946</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.04922294205053</v>
+        <v>11.29509543185106</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.861948555330095</v>
+        <v>8.309584973848388</v>
       </c>
       <c r="AE5" t="n">
-        <v>-3.586187171548572</v>
+        <v>42.62748948877552</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.379264617202061</v>
+        <v>14.84373367251191</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.383419852181265</v>
+        <v>3.291794586798412</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.896951202449409</v>
+        <v>-20.0926297853842</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.112763353089163</v>
+        <v>7.754913953444882</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.426454606609106</v>
+        <v>6.120552467087947</v>
       </c>
       <c r="AK5" t="n">
-        <v>8.257746932516753</v>
+        <v>-0.4265267203915776</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.876169403885371</v>
+        <v>8.511244593798356</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.957719399549793</v>
+        <v>15.52261616123203</v>
       </c>
       <c r="AN5" t="n">
-        <v>14.74823351530537</v>
+        <v>10.49700277304883</v>
       </c>
       <c r="AO5" t="n">
-        <v>-20.03315158011439</v>
+        <v>39.12660126856851</v>
       </c>
       <c r="AP5" t="n">
-        <v>13.56222199225439</v>
+        <v>10.8606280717676</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9.094318748797638</v>
+        <v>-10.44940664758283</v>
       </c>
       <c r="AR5" t="n">
-        <v>45.52903480555291</v>
+        <v>0.08757385973507505</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.005295600829573</v>
+        <v>-0.1659367859824522</v>
       </c>
       <c r="AT5" t="n">
-        <v>45.80889715402452</v>
+        <v>10.1845605621176</v>
       </c>
       <c r="AU5" t="n">
-        <v>-1.76088130921843</v>
+        <v>3.471347309792262</v>
       </c>
       <c r="AV5" t="n">
-        <v>14.2197004027295</v>
+        <v>9.644331150382047</v>
       </c>
       <c r="AW5" t="n">
-        <v>29.6066673775673</v>
+        <v>1.836676980628386</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.23043545071654</v>
+        <v>12.92271405699639</v>
       </c>
       <c r="AY5" t="n">
-        <v>-8.776955946671352</v>
+        <v>9.584462351234283</v>
       </c>
       <c r="AZ5" t="n">
-        <v>7.473155993078039</v>
+        <v>6.481524216154918</v>
       </c>
       <c r="BA5" t="n">
-        <v>-4.316838167736182</v>
+        <v>3.296647486897211</v>
       </c>
       <c r="BB5" t="n">
-        <v>18.99472115177565</v>
+        <v>10.55674611665704</v>
       </c>
       <c r="BC5" t="n">
-        <v>11.90238306571434</v>
+        <v>12.32512568603758</v>
       </c>
       <c r="BD5" t="n">
-        <v>6.715599258662088</v>
+        <v>8.994399700841003</v>
       </c>
       <c r="BE5" t="n">
-        <v>10.90349405091697</v>
+        <v>4.220842102782036</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.798337481730591</v>
+        <v>11.26432558726416</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.23719323126584</v>
+        <v>0.2151590733130483</v>
       </c>
       <c r="BH5" t="n">
-        <v>12.12360014889544</v>
+        <v>12.7959681327314</v>
       </c>
       <c r="BI5" t="n">
-        <v>20.07053251531336</v>
+        <v>12.73083918504373</v>
       </c>
       <c r="BJ5" t="n">
-        <v>14.40105701189203</v>
+        <v>10.71527482991769</v>
       </c>
       <c r="BK5" t="n">
-        <v>12.50110405052226</v>
+        <v>39.70989997815751</v>
       </c>
       <c r="BL5" t="n">
-        <v>9.167267597041194</v>
+        <v>9.029204665238547</v>
       </c>
       <c r="BM5" t="n">
-        <v>39.83639177968691</v>
+        <v>17.32918313236606</v>
       </c>
     </row>
     <row r="6">
@@ -1560,196 +1560,196 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.52552199148507</v>
+        <v>-1.333991495278647</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.529044827400305</v>
+        <v>0.6491803195437286</v>
       </c>
       <c r="D6" t="n">
-        <v>35.59497627344722</v>
+        <v>2.304976034738823</v>
       </c>
       <c r="E6" t="n">
-        <v>28.46244096876185</v>
+        <v>13.28218449111714</v>
       </c>
       <c r="F6" t="n">
-        <v>3.350624127621846</v>
+        <v>2.698148862120096</v>
       </c>
       <c r="G6" t="n">
-        <v>25.73542149854818</v>
+        <v>-0.2682384118264529</v>
       </c>
       <c r="H6" t="n">
-        <v>2.986426782137981</v>
+        <v>-12.08849573251114</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2831547192137537</v>
+        <v>5.095125836838961</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3873769192301929</v>
+        <v>12.19211616650575</v>
       </c>
       <c r="K6" t="n">
-        <v>8.788176896521311</v>
+        <v>1.357427876216335</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.286345050055049</v>
+        <v>9.314503554459042</v>
       </c>
       <c r="M6" t="n">
-        <v>7.903329120338033</v>
+        <v>4.823191519766008</v>
       </c>
       <c r="N6" t="n">
-        <v>5.328789125731928</v>
+        <v>26.93774691920062</v>
       </c>
       <c r="O6" t="n">
-        <v>4.088652647577475</v>
+        <v>3.59353283164078</v>
       </c>
       <c r="P6" t="n">
-        <v>13.33016428462191</v>
+        <v>29.42090216271508</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.87484957112305</v>
+        <v>7.214001445445406</v>
       </c>
       <c r="R6" t="n">
-        <v>2.187476061563912</v>
+        <v>1.419995794040529</v>
       </c>
       <c r="S6" t="n">
-        <v>7.518568020818091</v>
+        <v>12.35671449272788</v>
       </c>
       <c r="T6" t="n">
-        <v>6.294590700029423</v>
+        <v>1.79686584452406</v>
       </c>
       <c r="U6" t="n">
-        <v>6.379057729347913</v>
+        <v>5.801672801528966</v>
       </c>
       <c r="V6" t="n">
-        <v>1.068713169954625</v>
+        <v>0.228168047397067</v>
       </c>
       <c r="W6" t="n">
-        <v>5.974527222606655</v>
+        <v>5.164905977295413</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3362197283829674</v>
+        <v>9.653465063529895</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.375833927450688</v>
+        <v>5.793937348062646</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.987177227188219</v>
+        <v>-5.412176988195759</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.12875075814999</v>
+        <v>10.95082496475597</v>
       </c>
       <c r="AB6" t="n">
-        <v>-2.892796133017432</v>
+        <v>5.554434545240364</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.035452630050608</v>
+        <v>1.728404010006458</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.36358369971611</v>
+        <v>1.905743405497914</v>
       </c>
       <c r="AE6" t="n">
-        <v>-3.920038643001398</v>
+        <v>2.446010463108935</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.514695191901311</v>
+        <v>3.378676963319744</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5544747502327627</v>
+        <v>-1.224327060525022</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.231673919747516</v>
+        <v>-11.33710507265018</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.881078938116861</v>
+        <v>4.052071628678324</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.4565527330777331</v>
+        <v>12.23919201719054</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.63113052076591</v>
+        <v>-3.016138650213648</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.946032759518132</v>
+        <v>3.481933888183362</v>
       </c>
       <c r="AM6" t="n">
-        <v>43.30353646751151</v>
+        <v>5.608132917691218</v>
       </c>
       <c r="AN6" t="n">
-        <v>12.79494133136618</v>
+        <v>9.853992729576643</v>
       </c>
       <c r="AO6" t="n">
-        <v>-6.061101136884048</v>
+        <v>-4.121563653888209</v>
       </c>
       <c r="AP6" t="n">
-        <v>9.992964056199318</v>
+        <v>4.767947063894479</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6.166306685753808</v>
+        <v>-4.99158760883583</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.473949143240533</v>
+        <v>-0.942433235376038</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.100173186178141</v>
+        <v>2.536682033034998</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6693437610791683</v>
+        <v>35.79564661434018</v>
       </c>
       <c r="AU6" t="n">
-        <v>-5.740207315286371</v>
+        <v>3.024232924478397</v>
       </c>
       <c r="AV6" t="n">
-        <v>10.50687745178226</v>
+        <v>-1.153250566717615</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.612960291843436</v>
+        <v>25.68795857351432</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.31506123517334</v>
+        <v>1.043218529549879</v>
       </c>
       <c r="AY6" t="n">
-        <v>-11.9765362907485</v>
+        <v>6.44927001344125</v>
       </c>
       <c r="AZ6" t="n">
-        <v>33.82520959548299</v>
+        <v>43.36265614232923</v>
       </c>
       <c r="BA6" t="n">
-        <v>-12.52955664798593</v>
+        <v>-2.774810195939321</v>
       </c>
       <c r="BB6" t="n">
-        <v>12.51683331060932</v>
+        <v>22.38223990341534</v>
       </c>
       <c r="BC6" t="n">
-        <v>10.50499609965588</v>
+        <v>4.043820260113506</v>
       </c>
       <c r="BD6" t="n">
-        <v>6.211590154924909</v>
+        <v>2.831813178384265</v>
       </c>
       <c r="BE6" t="n">
-        <v>4.159888418366058</v>
+        <v>1.445393981197813</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.808539139325159</v>
+        <v>2.707727689303793</v>
       </c>
       <c r="BG6" t="n">
-        <v>4.213480556316759</v>
+        <v>8.309465470113503</v>
       </c>
       <c r="BH6" t="n">
-        <v>6.033843760374702</v>
+        <v>8.320779211306384</v>
       </c>
       <c r="BI6" t="n">
-        <v>4.855178342427278</v>
+        <v>6.88565365654202</v>
       </c>
       <c r="BJ6" t="n">
-        <v>7.215362397007723</v>
+        <v>9.232128294366765</v>
       </c>
       <c r="BK6" t="n">
-        <v>11.31887875840244</v>
+        <v>2.925307147614092</v>
       </c>
       <c r="BL6" t="n">
-        <v>3.763480766092899</v>
+        <v>7.02417554140716</v>
       </c>
       <c r="BM6" t="n">
-        <v>3.331988798096443</v>
+        <v>12.39245725824781</v>
       </c>
     </row>
     <row r="7">
@@ -1759,196 +1759,196 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09771159231778288</v>
+        <v>-1.133828505535122</v>
       </c>
       <c r="C7" t="n">
-        <v>2.035311546673499</v>
+        <v>0.002523116026675482</v>
       </c>
       <c r="D7" t="n">
-        <v>1.795189152987985</v>
+        <v>0.003544412314609016</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1791108129230323</v>
+        <v>3.7964324380501</v>
       </c>
       <c r="F7" t="n">
-        <v>1.308855791566389</v>
+        <v>-0.5946121629479411</v>
       </c>
       <c r="G7" t="n">
-        <v>1.413217843283904</v>
+        <v>-0.1224054282892593</v>
       </c>
       <c r="H7" t="n">
-        <v>1.520306676500372</v>
+        <v>1.033778643605968</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7016805043170143</v>
+        <v>2.044287727248727</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.6793525228904909</v>
+        <v>-0.4087099978868887</v>
       </c>
       <c r="K7" t="n">
-        <v>2.210419102751361</v>
+        <v>-1.264778302689227</v>
       </c>
       <c r="L7" t="n">
-        <v>1.754520648911451</v>
+        <v>3.798229851045135</v>
       </c>
       <c r="M7" t="n">
-        <v>3.995411200696204</v>
+        <v>1.405189219397131</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.3050561942677069</v>
+        <v>0.7006122718872699</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9125645333752194</v>
+        <v>2.832612439541903</v>
       </c>
       <c r="P7" t="n">
-        <v>2.726772975674197</v>
+        <v>1.402405440421116</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.989075692183142</v>
+        <v>-1.529637657078611</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7845119521566494</v>
+        <v>-1.115306492989922</v>
       </c>
       <c r="S7" t="n">
-        <v>3.962627386270124</v>
+        <v>-1.270970985616435</v>
       </c>
       <c r="T7" t="n">
-        <v>3.036509835252111</v>
+        <v>2.100038141868394</v>
       </c>
       <c r="U7" t="n">
-        <v>3.584828790408062</v>
+        <v>2.292589539599649</v>
       </c>
       <c r="V7" t="n">
-        <v>2.948605638106437</v>
+        <v>1.402637480150682</v>
       </c>
       <c r="W7" t="n">
-        <v>-3.110574524052697</v>
+        <v>-0.03627958563187456</v>
       </c>
       <c r="X7" t="n">
-        <v>0.581887835636436</v>
+        <v>0.8642122642223323</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.654670773034193</v>
+        <v>0.08952014819335025</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1298232276755383</v>
+        <v>-0.5272967603786239</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.291956487678705</v>
+        <v>3.414140607784797</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1.957165154050768</v>
+        <v>-1.369163428065722</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.418997408793814</v>
+        <v>-0.7297344529202069</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.7656450806100416</v>
+        <v>0.6046589908202251</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.361586314896703</v>
+        <v>0.9246414114214782</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.413495598169572</v>
+        <v>4.72048882118082</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2592768714936965</v>
+        <v>-1.292719059305553</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.9589869133850043</v>
+        <v>2.815421418047861</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.250169198433417</v>
+        <v>-1.418199534606574</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2711560391543921</v>
+        <v>4.714452797806977</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.5479012962231441</v>
+        <v>3.457432703338175</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7023334649813954</v>
+        <v>0.9498298639988649</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.925570112853019</v>
+        <v>2.892421574414892</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.666825672933382</v>
+        <v>3.553918352849196</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.690180318936354</v>
+        <v>1.56563402506289</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.501526879945895</v>
+        <v>2.698884619255088</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.248215275202488</v>
+        <v>-1.45655504358182</v>
       </c>
       <c r="AR7" t="n">
-        <v>-1.424638896684594</v>
+        <v>-1.283236728480725</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.17285204615408</v>
+        <v>-0.006833128586951362</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.576041651273766</v>
+        <v>3.061931248157909</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.8644211087315148</v>
+        <v>-1.866481139529092</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.8145492858583087</v>
+        <v>-0.912734230350374</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0.1400556398567732</v>
+        <v>3.905287445003446</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.5647403311853899</v>
+        <v>-0.9032144650873319</v>
       </c>
       <c r="AY7" t="n">
-        <v>-1.107843427014457</v>
+        <v>1.878591986063948</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.277333794936672</v>
+        <v>0.8420701081057321</v>
       </c>
       <c r="BA7" t="n">
-        <v>-1.260260932213532</v>
+        <v>2.407832321272892</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0.4508009396735558</v>
+        <v>2.039499973496534</v>
       </c>
       <c r="BC7" t="n">
-        <v>2.077190932916221</v>
+        <v>0.6326158673959802</v>
       </c>
       <c r="BD7" t="n">
-        <v>2.981735496692353</v>
+        <v>1.043812773720016</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.09742450950623285</v>
+        <v>0.2716595886105739</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.279824790287531</v>
+        <v>2.30072222143425</v>
       </c>
       <c r="BG7" t="n">
-        <v>2.067776956982863</v>
+        <v>2.01322947054422</v>
       </c>
       <c r="BH7" t="n">
-        <v>-1.074611674098081</v>
+        <v>1.504824178183395</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.881111764552601</v>
+        <v>0.3414518314771305</v>
       </c>
       <c r="BJ7" t="n">
-        <v>2.550856448939133</v>
+        <v>1.194044771047025</v>
       </c>
       <c r="BK7" t="n">
-        <v>3.952142040370371</v>
+        <v>0.6503038816718171</v>
       </c>
       <c r="BL7" t="n">
-        <v>-1.10160088073392</v>
+        <v>-3.984336380090108</v>
       </c>
       <c r="BM7" t="n">
-        <v>-1.562357894419319</v>
+        <v>-1.684908990712582</v>
       </c>
     </row>
     <row r="8">
@@ -1958,196 +1958,196 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.138483470587734</v>
+        <v>-0.3562998463018867</v>
       </c>
       <c r="C8" t="n">
-        <v>1.467364080796065</v>
+        <v>1.22991593705963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2865574972727185</v>
+        <v>1.110333074878473</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.178611909168598</v>
+        <v>-3.862821466248437</v>
       </c>
       <c r="F8" t="n">
-        <v>5.471516516360094</v>
+        <v>2.399371992955145</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9518362548691744</v>
+        <v>-2.186905919557149</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9726898968149188</v>
+        <v>-1.356901572987445</v>
       </c>
       <c r="I8" t="n">
-        <v>2.933970203912725</v>
+        <v>-0.2421916958373991</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1748759073869</v>
+        <v>0.01028045352666759</v>
       </c>
       <c r="K8" t="n">
-        <v>4.779951126566169</v>
+        <v>1.532593648418413</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1848112620313451</v>
+        <v>0.02828507730915433</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8774948570259533</v>
+        <v>0.9030305106483296</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7226713475520602</v>
+        <v>-0.9571142259093969</v>
       </c>
       <c r="O8" t="n">
-        <v>2.785484846203405</v>
+        <v>0.1972272029057504</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.217120761750805</v>
+        <v>1.165424239506077</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.341740311989529</v>
+        <v>1.166323203952007</v>
       </c>
       <c r="R8" t="n">
-        <v>1.795026102370056</v>
+        <v>3.461447065752325</v>
       </c>
       <c r="S8" t="n">
-        <v>-1.458148324115749</v>
+        <v>-0.02978096414602471</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2251176690105812</v>
+        <v>1.913551891545745</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2169389926119194</v>
+        <v>1.92878375693864</v>
       </c>
       <c r="V8" t="n">
-        <v>1.960226950347476</v>
+        <v>-1.380251416033568</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5995713467773385</v>
+        <v>-2.258532919831602</v>
       </c>
       <c r="X8" t="n">
-        <v>2.154314280795152</v>
+        <v>-1.895530200836976</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7937112050919015</v>
+        <v>1.530998724036134</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.7320566569406689</v>
+        <v>0.255321116515735</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.653698370527385</v>
+        <v>1.665735577461877</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5988703414587059</v>
+        <v>2.994913443367207</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.870253981057463</v>
+        <v>2.254693723377609</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.8421478834431035</v>
+        <v>1.340342112718986</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.748767392159464</v>
+        <v>2.534115782130122</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5156331058798729</v>
+        <v>6.006545913041077</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7074582001319938</v>
+        <v>0.3930558047566364</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.111750709488063</v>
+        <v>0.04366177420592352</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.378437928047882</v>
+        <v>-0.3280192050211701</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.8460848262493795</v>
+        <v>-1.046963143234689</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.983363642354989</v>
+        <v>2.619212658652004</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.635691029950389</v>
+        <v>-3.281472863161443</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.37758390316574</v>
+        <v>3.315591039577015</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.861709313518451</v>
+        <v>3.57401614233312</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.9196827243376607</v>
+        <v>2.287560913541995</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.988849216421259</v>
+        <v>0.7558238271533942</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-1.256718713747883</v>
+        <v>-1.828671321228939</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.7607926822869361</v>
+        <v>0.25465275151562</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.1748844835612871</v>
+        <v>2.379217436841833</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.32945695063036</v>
+        <v>1.012716120399933</v>
       </c>
       <c r="AU8" t="n">
-        <v>-1.002865083773748</v>
+        <v>-1.822236191263186</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.397209902564293</v>
+        <v>2.056082086964147</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.6087987636891663</v>
+        <v>-0.1094569368588235</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.9543906838801912</v>
+        <v>2.875386271130438</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0.361052269845477</v>
+        <v>1.079175781805206</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-2.302248057888234</v>
+        <v>0.6497362197285222</v>
       </c>
       <c r="BA8" t="n">
-        <v>-2.413236281714324</v>
+        <v>0.2978118832024648</v>
       </c>
       <c r="BB8" t="n">
-        <v>3.7420846010241</v>
+        <v>-0.03073816880702594</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0.4159448920728562</v>
+        <v>5.748749897120752</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.904826509222926</v>
+        <v>2.419628096427995</v>
       </c>
       <c r="BE8" t="n">
-        <v>2.533002582485353</v>
+        <v>0.4626494412998687</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.530543123139766</v>
+        <v>1.186571829304632</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.219864462746307</v>
+        <v>1.576081940418557</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.7834998727409352</v>
+        <v>-0.7664578906654238</v>
       </c>
       <c r="BI8" t="n">
-        <v>3.952389294917918</v>
+        <v>-2.498387178367581</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.7143694327253823</v>
+        <v>1.233638661200003</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.6646463615295567</v>
+        <v>0.5337021891216885</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.1652459730710572</v>
+        <v>4.001198481885416</v>
       </c>
       <c r="BM8" t="n">
-        <v>-0.2788783569605912</v>
+        <v>1.085887777703675</v>
       </c>
     </row>
     <row r="9">
@@ -2157,196 +2157,196 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.154966607528816</v>
+        <v>-0.954167183918182</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3197689209825388</v>
+        <v>-1.486266278478916</v>
       </c>
       <c r="D9" t="n">
-        <v>1.502618759868475</v>
+        <v>-0.5486225597778065</v>
       </c>
       <c r="E9" t="n">
-        <v>4.127055158858241</v>
+        <v>1.912290276624562</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.849454086658769</v>
+        <v>0.4405539156287196</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.197101642265919</v>
+        <v>3.820639718289714</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3813088666186633</v>
+        <v>-2.89258962151931</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.736965772733974</v>
+        <v>2.081020236434546</v>
       </c>
       <c r="J9" t="n">
-        <v>2.593688183190643</v>
+        <v>-0.3033408221637375</v>
       </c>
       <c r="K9" t="n">
-        <v>4.491762775464178</v>
+        <v>0.702205996350548</v>
       </c>
       <c r="L9" t="n">
-        <v>1.717107789635357</v>
+        <v>-0.3304239034995272</v>
       </c>
       <c r="M9" t="n">
-        <v>1.377042732053778</v>
+        <v>-0.7639738282268209</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7829040413995574</v>
+        <v>3.101721401147539</v>
       </c>
       <c r="O9" t="n">
-        <v>2.690612561452163</v>
+        <v>1.430804470796571</v>
       </c>
       <c r="P9" t="n">
-        <v>4.466453641618883</v>
+        <v>3.433593115628285</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.3057452946753823</v>
+        <v>-1.136317488840217</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5658511418637144</v>
+        <v>-5.570561082291793</v>
       </c>
       <c r="S9" t="n">
-        <v>-4.105181570959737</v>
+        <v>-0.2219406414006792</v>
       </c>
       <c r="T9" t="n">
-        <v>2.414028761013003</v>
+        <v>0.3634833061899815</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9978299225932412</v>
+        <v>1.092588512820732</v>
       </c>
       <c r="V9" t="n">
-        <v>2.149689838240995</v>
+        <v>1.495335208200246</v>
       </c>
       <c r="W9" t="n">
-        <v>-2.712130848621253</v>
+        <v>2.127769073185808</v>
       </c>
       <c r="X9" t="n">
-        <v>1.099226915375794</v>
+        <v>6.342760454939673</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7719090705403392</v>
+        <v>0.6631161496066198</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.4426165038979711</v>
+        <v>-0.4430166296284925</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.843636600255889</v>
+        <v>-0.3523514377806874</v>
       </c>
       <c r="AB9" t="n">
-        <v>-1.265321582576078</v>
+        <v>-0.01030456527761011</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.08104884762909</v>
+        <v>0.6897475112096536</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.08230353368297298</v>
+        <v>1.1985778296227</v>
       </c>
       <c r="AE9" t="n">
-        <v>-2.090049178221695</v>
+        <v>2.414989407782428</v>
       </c>
       <c r="AF9" t="n">
-        <v>-1.244644391323394</v>
+        <v>-0.05769049762037245</v>
       </c>
       <c r="AG9" t="n">
-        <v>-1.207407315366843</v>
+        <v>-0.05935074898573337</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.430209779750617</v>
+        <v>0.09256180943608175</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.473759012279005</v>
+        <v>1.888061158803934</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.1056362100487983</v>
+        <v>0.8121622056208079</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.572888742437102</v>
+        <v>-0.3961636268316042</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6690988349106293</v>
+        <v>-0.01226113833766622</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.6818957337937537</v>
+        <v>-2.831073925173404</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.6768059957406853</v>
+        <v>2.582959381816321</v>
       </c>
       <c r="AO9" t="n">
-        <v>-2.010567954090797</v>
+        <v>-0.3447533890949866</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0.0931986095177381</v>
+        <v>1.188929820404014</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.582999209316727</v>
+        <v>-0.7144367333929048</v>
       </c>
       <c r="AR9" t="n">
-        <v>-1.122802770630233</v>
+        <v>-0.2664149816566898</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.08296531047117314</v>
+        <v>-2.166393733402864</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.372244959815149</v>
+        <v>2.931066117343497</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.4602969682180725</v>
+        <v>-2.327279661068703</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.410656426887478</v>
+        <v>-0.804758594554895</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.102515925395338</v>
+        <v>-1.901640698939197</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.04731987467836408</v>
+        <v>-1.542515973572549</v>
       </c>
       <c r="AY9" t="n">
-        <v>-1.170394871652271</v>
+        <v>-0.3659046434359648</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.3260470408980145</v>
+        <v>0.770889284128648</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.03535655126433126</v>
+        <v>1.182788036950006</v>
       </c>
       <c r="BB9" t="n">
-        <v>3.063995125861396</v>
+        <v>3.105530037960432</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.082315117196531</v>
+        <v>-3.322651581993181</v>
       </c>
       <c r="BD9" t="n">
-        <v>3.405651877697669</v>
+        <v>-0.7010948276538422</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.549954733973954</v>
+        <v>0.02668417036618467</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.6985180860786019</v>
+        <v>0.5895822797395012</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.3583003914515048</v>
+        <v>0.1155817444113811</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.01546984362494688</v>
+        <v>2.572323375134073</v>
       </c>
       <c r="BI9" t="n">
-        <v>-2.155512674473968</v>
+        <v>-0.7448334338142336</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.804292702301441</v>
+        <v>0.5047712728266058</v>
       </c>
       <c r="BK9" t="n">
-        <v>-2.835119670238306</v>
+        <v>1.040403558913256</v>
       </c>
       <c r="BL9" t="n">
-        <v>-3.085121946172035</v>
+        <v>-1.184991428632078</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0.9165662562546808</v>
+        <v>-2.533795281621675</v>
       </c>
     </row>
   </sheetData>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-573.9149264371833</v>
+        <v>-570.2662837152087</v>
       </c>
     </row>
     <row r="3">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.41956144144194</v>
+        <v>81.56243535168404</v>
       </c>
     </row>
     <row r="4">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.60296044678161</v>
+        <v>60.19536281119017</v>
       </c>
     </row>
     <row r="5">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.79652805197923</v>
+        <v>78.9830637821111</v>
       </c>
     </row>
     <row r="6">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.33831540183439</v>
+        <v>108.3172520857835</v>
       </c>
     </row>
     <row r="7">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.5768635015842</v>
+        <v>79.61985397491289</v>
       </c>
     </row>
     <row r="8">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.73145017117102</v>
+        <v>93.61095786341153</v>
       </c>
     </row>
     <row r="9">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.52449076774131</v>
+        <v>63.14676016580403</v>
       </c>
     </row>
     <row r="10">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.65004497025227</v>
+        <v>57.98997656599057</v>
       </c>
     </row>
     <row r="11">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.70478568361634</v>
+        <v>92.34618064891875</v>
       </c>
     </row>
     <row r="12">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>93.00128498371308</v>
+        <v>83.67030468470159</v>
       </c>
     </row>
     <row r="13">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.8040336432327</v>
+        <v>82.31606840984338</v>
       </c>
     </row>
     <row r="14">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.60240097146405</v>
+        <v>66.4316593338864</v>
       </c>
     </row>
     <row r="15">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.139981496007</v>
+        <v>55.29389373512738</v>
       </c>
     </row>
     <row r="16">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.98316473232859</v>
+        <v>91.08327945799765</v>
       </c>
     </row>
     <row r="17">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>107.9631139743448</v>
+        <v>73.45802155965647</v>
       </c>
     </row>
     <row r="18">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>72.88798960085708</v>
+        <v>105.2863209919824</v>
       </c>
     </row>
     <row r="19">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.8775487222831</v>
+        <v>100.2157605918625</v>
       </c>
     </row>
     <row r="20">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61.58306825343172</v>
+        <v>101.1114756820608</v>
       </c>
     </row>
     <row r="21">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.9625272811402</v>
+        <v>58.40854883931171</v>
       </c>
     </row>
     <row r="22">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.9798675852899</v>
+        <v>83.16702574550158</v>
       </c>
     </row>
     <row r="23">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.04241784680377</v>
+        <v>75.25486615314453</v>
       </c>
     </row>
     <row r="24">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.7428860579245</v>
+        <v>120.2450397985983</v>
       </c>
     </row>
     <row r="25">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.6589488390166</v>
+        <v>117.5853420957646</v>
       </c>
     </row>
     <row r="26">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77.4856954825472</v>
+        <v>88.77765655366406</v>
       </c>
     </row>
     <row r="27">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>81.25859454552487</v>
+        <v>81.29366526579948</v>
       </c>
     </row>
     <row r="28">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.3362579118704</v>
+        <v>123.3630816710494</v>
       </c>
     </row>
     <row r="29">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85.38436099539516</v>
+        <v>85.81629925694604</v>
       </c>
     </row>
     <row r="30">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.74933815424177</v>
+        <v>88.60725483023842</v>
       </c>
     </row>
     <row r="31">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.31978440574215</v>
+        <v>75.57604708779964</v>
       </c>
     </row>
     <row r="32">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.55528134981585</v>
+        <v>61.40285016858498</v>
       </c>
     </row>
     <row r="33">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>102.4683648754329</v>
+        <v>108.1135194536011</v>
       </c>
     </row>
     <row r="34">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.50228167559139</v>
+        <v>91.20319556898579</v>
       </c>
     </row>
     <row r="35">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>71.29827566069488</v>
+        <v>48.3823723814285</v>
       </c>
     </row>
     <row r="36">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>67.22512030059751</v>
+        <v>70.83324682468074</v>
       </c>
     </row>
     <row r="37">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.00973630685638</v>
+        <v>64.28613971461421</v>
       </c>
     </row>
     <row r="38">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.9189003052759</v>
+        <v>106.041189476909</v>
       </c>
     </row>
     <row r="39">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>71.8347111832325</v>
+        <v>84.25844909227335</v>
       </c>
     </row>
     <row r="40">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.27965778750846</v>
+        <v>118.3132539139545</v>
       </c>
     </row>
     <row r="41">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>102.9118521466476</v>
+        <v>101.6355416592764</v>
       </c>
     </row>
     <row r="42">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>51.61941632269563</v>
+        <v>60.38342826336481</v>
       </c>
     </row>
     <row r="43">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.83330830988172</v>
+        <v>85.7325843422792</v>
       </c>
     </row>
     <row r="44">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>89.20227597776012</v>
+        <v>88.67340143687528</v>
       </c>
     </row>
     <row r="45">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>60.02636713358346</v>
+        <v>79.99413302526601</v>
       </c>
     </row>
     <row r="46">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.56165925281601</v>
+        <v>59.55253549202047</v>
       </c>
     </row>
     <row r="47">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>53.99286206619644</v>
+        <v>59.99561189902431</v>
       </c>
     </row>
     <row r="48">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>57.2591731696064</v>
+        <v>74.91925275506946</v>
       </c>
     </row>
     <row r="49">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>112.3535622831743</v>
+        <v>79.09495704349646</v>
       </c>
     </row>
     <row r="50">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>70.80738218488159</v>
+        <v>57.33658158627344</v>
       </c>
     </row>
     <row r="51">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>81.34226046571587</v>
+        <v>98.00088124272354</v>
       </c>
     </row>
     <row r="52">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>83.1267470212379</v>
+        <v>91.31868117115349</v>
       </c>
     </row>
     <row r="53">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>76.8187747274886</v>
+        <v>56.24300176159404</v>
       </c>
     </row>
     <row r="54">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>69.73135778532435</v>
+        <v>75.10413400965038</v>
       </c>
     </row>
     <row r="55">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>85.97585318856248</v>
+        <v>86.25306756004515</v>
       </c>
     </row>
     <row r="56">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>109.5173186822128</v>
+        <v>98.24696203355347</v>
       </c>
     </row>
     <row r="57">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>79.4885019677541</v>
+        <v>70.34605918566396</v>
       </c>
     </row>
     <row r="58">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>76.88219114135525</v>
+        <v>90.33374292045951</v>
       </c>
     </row>
     <row r="59">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>80.35808877128224</v>
+        <v>101.4175942667166</v>
       </c>
     </row>
     <row r="60">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>79.57554727679461</v>
+        <v>76.30289737878083</v>
       </c>
     </row>
     <row r="61">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>97.43614279063948</v>
+        <v>88.84469566648806</v>
       </c>
     </row>
     <row r="62">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>103.192171243229</v>
+        <v>96.65982295077556</v>
       </c>
     </row>
     <row r="63">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>84.61315675917334</v>
+        <v>86.39557745051087</v>
       </c>
     </row>
     <row r="64">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>119.6838167322247</v>
+        <v>68.37722191593184</v>
       </c>
     </row>
     <row r="65">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>82.90317676650059</v>
+        <v>98.7082684075977</v>
       </c>
     </row>
     <row r="66">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>59.69469548218798</v>
+        <v>105.7041762248403</v>
       </c>
     </row>
   </sheetData>
